--- a/src/dati_ceramiche_classi.xlsx
+++ b/src/dati_ceramiche_classi.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{000953CA-66BF-450D-B2D7-3E423D5CFE2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenti\GitHub\tirocinio\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13975DAA-A0FE-4390-BB81-B4A222133FE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19425" windowHeight="10425" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tarquinia" sheetId="1" r:id="rId1"/>
     <sheet name="non_tarquinia" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -356,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -408,6 +413,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -450,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,6 +496,8 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -766,18 +780,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A43" zoomScale="80" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -813,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -848,14 +862,11 @@
         <v>8.7984173261141191E-2</v>
       </c>
       <c r="L2" s="9">
-        <f>SUM(C2:K2)</f>
+        <f t="shared" ref="L2:L33" si="0">SUM(C2:K2)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -887,14 +898,11 @@
         <v>0.10535809780743413</v>
       </c>
       <c r="L3" s="9">
-        <f>SUM(C3:K3)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -926,14 +934,11 @@
         <v>8.1968851836302203E-2</v>
       </c>
       <c r="L4" s="9">
-        <f>SUM(C4:K4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
@@ -965,13 +970,13 @@
         <v>0.13782014471115195</v>
       </c>
       <c r="L5" s="9">
-        <f>SUM(C5:K5)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -1004,14 +1009,11 @@
         <v>9.6128502100872926E-2</v>
       </c>
       <c r="L6" s="9">
-        <f>SUM(C6:K6)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1043,13 +1045,13 @@
         <v>9.0149572106960563E-2</v>
       </c>
       <c r="L7" s="9">
-        <f>SUM(C7:K7)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -1082,14 +1084,11 @@
         <v>8.1424383888828569E-2</v>
       </c>
       <c r="L8" s="9">
-        <f>SUM(C8:K8)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1121,14 +1120,11 @@
         <v>8.0557457606637933E-2</v>
       </c>
       <c r="L9" s="9">
-        <f>SUM(C9:K9)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1160,14 +1156,11 @@
         <v>0.12918612739739638</v>
       </c>
       <c r="L10" s="9">
-        <f>SUM(C10:K10)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1199,13 +1192,13 @@
         <v>0.12052660856666046</v>
       </c>
       <c r="L11" s="9">
-        <f>SUM(C11:K11)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
@@ -1238,14 +1231,11 @@
         <v>9.9176150590638182E-2</v>
       </c>
       <c r="L12" s="9">
-        <f>SUM(C12:K12)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1277,14 +1267,11 @@
         <v>8.5664454181842833E-2</v>
       </c>
       <c r="L13" s="9">
-        <f>SUM(C13:K13)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1316,13 +1303,13 @@
         <v>0.15646391550948566</v>
       </c>
       <c r="L14" s="9">
-        <f>SUM(C14:K14)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
@@ -1355,14 +1342,11 @@
         <v>6.6281031573873231E-2</v>
       </c>
       <c r="L15" s="9">
-        <f>SUM(C15:K15)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1394,14 +1378,11 @@
         <v>0.10266315175875899</v>
       </c>
       <c r="L16" s="9">
-        <f>SUM(C16:K16)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1433,14 +1414,11 @@
         <v>9.6339113680154187E-2</v>
       </c>
       <c r="L17" s="9">
-        <f>SUM(C17:K17)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1472,13 +1450,13 @@
         <v>0.15982951518380392</v>
       </c>
       <c r="L18" s="9">
-        <f>SUM(C18:K18)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
@@ -1511,14 +1489,11 @@
         <v>0.1039531913629749</v>
       </c>
       <c r="L19" s="9">
-        <f>SUM(C19:K19)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1550,14 +1525,11 @@
         <v>0.17117006969067122</v>
       </c>
       <c r="L20" s="9">
-        <f>SUM(C20:K20)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1589,14 +1561,11 @@
         <v>0.11878741803668155</v>
       </c>
       <c r="L21" s="9">
-        <f>SUM(C21:K21)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1628,13 +1597,13 @@
         <v>0.1153841023383622</v>
       </c>
       <c r="L22" s="9">
-        <f>SUM(C22:K22)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>29</v>
@@ -1667,15 +1636,12 @@
         <v>8.5747953622456463E-2</v>
       </c>
       <c r="L23" s="9">
-        <f>SUM(C23:K23)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1707,14 +1673,11 @@
         <v>9.5412260475471078E-2</v>
       </c>
       <c r="L24" s="9">
-        <f>SUM(C24:K24)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1746,14 +1709,11 @@
         <v>0.14074012749399786</v>
       </c>
       <c r="L25" s="9">
-        <f>SUM(C25:K25)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1785,13 +1745,13 @@
         <v>0.16334785314250155</v>
       </c>
       <c r="L26" s="9">
-        <f>SUM(C26:K26)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>31</v>
@@ -1824,14 +1784,11 @@
         <v>7.7536209409794388E-2</v>
       </c>
       <c r="L27" s="9">
-        <f>SUM(C27:K27)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="13">
-        <v>27</v>
-      </c>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1863,14 +1820,11 @@
         <v>0.10655614462872047</v>
       </c>
       <c r="L28" s="9">
-        <f>SUM(C28:K28)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="13">
-        <v>28</v>
-      </c>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1902,14 +1856,11 @@
         <v>0.11569204880100967</v>
       </c>
       <c r="L29" s="9">
-        <f>SUM(C29:K29)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="13">
-        <v>29</v>
-      </c>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1941,13 +1892,13 @@
         <v>0.14696276943174391</v>
       </c>
       <c r="L30" s="9">
-        <f>SUM(C30:K30)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999957</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>33</v>
@@ -1980,15 +1931,12 @@
         <v>0.120117397758564</v>
       </c>
       <c r="L31" s="9">
-        <f>SUM(C31:K31)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
@@ -2020,14 +1968,11 @@
         <v>0.11029792627710984</v>
       </c>
       <c r="L32" s="9">
-        <f>SUM(C32:K32)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="13">
-        <v>32</v>
-      </c>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
@@ -2059,15 +2004,12 @@
         <v>6.939836951962601E-2</v>
       </c>
       <c r="L33" s="9">
-        <f>SUM(C33:K33)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2099,13 +2041,13 @@
         <v>7.2050435304713306E-2</v>
       </c>
       <c r="L34" s="9">
-        <f>SUM(C34:K34)</f>
+        <f t="shared" ref="L34:L65" si="1">SUM(C34:K34)</f>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
@@ -2138,14 +2080,11 @@
         <v>0.16347475284833973</v>
       </c>
       <c r="L35" s="9">
-        <f>SUM(C35:K35)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="13">
-        <v>35</v>
-      </c>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
@@ -2177,13 +2116,13 @@
         <v>0.23247622402254323</v>
       </c>
       <c r="L36" s="9">
-        <f>SUM(C36:K36)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>39</v>
@@ -2216,14 +2155,11 @@
         <v>0.13083669115904245</v>
       </c>
       <c r="L37" s="9">
-        <f>SUM(C37:K37)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="13">
-        <v>37</v>
-      </c>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>40</v>
       </c>
@@ -2255,14 +2191,11 @@
         <v>0.17459403723407621</v>
       </c>
       <c r="L38" s="9">
-        <f>SUM(C38:K38)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="13">
-        <v>38</v>
-      </c>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
@@ -2294,13 +2227,13 @@
         <v>0.18080567006581327</v>
       </c>
       <c r="L39" s="9">
-        <f>SUM(C39:K39)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999957</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>42</v>
@@ -2333,14 +2266,11 @@
         <v>9.0049091278793916E-2</v>
       </c>
       <c r="L40" s="9">
-        <f>SUM(C40:K40)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="13">
-        <v>40</v>
-      </c>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>43</v>
       </c>
@@ -2372,14 +2302,11 @@
         <v>7.7624968876781344E-2</v>
       </c>
       <c r="L41" s="9">
-        <f>SUM(C41:K41)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="13">
-        <v>41</v>
-      </c>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>43</v>
       </c>
@@ -2411,13 +2338,13 @@
         <v>0.10270455323519338</v>
       </c>
       <c r="L42" s="9">
-        <f>SUM(C42:K42)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>44</v>
@@ -2450,14 +2377,11 @@
         <v>8.6088439315927981E-2</v>
       </c>
       <c r="L43" s="9">
-        <f>SUM(C43:K43)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="13">
-        <v>43</v>
-      </c>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>45</v>
       </c>
@@ -2489,14 +2413,11 @@
         <v>0.10464276310903778</v>
       </c>
       <c r="L44" s="9">
-        <f>SUM(C44:K44)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="13">
-        <v>44</v>
-      </c>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2528,14 +2449,11 @@
         <v>0.19661080423181357</v>
       </c>
       <c r="L45" s="9">
-        <f>SUM(C45:K45)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="13">
-        <v>45</v>
-      </c>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2567,13 +2485,13 @@
         <v>0.19124376750221972</v>
       </c>
       <c r="L46" s="9">
-        <f>SUM(C46:K46)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>46</v>
@@ -2606,14 +2524,11 @@
         <v>0.1893877013273608</v>
       </c>
       <c r="L47" s="9">
-        <f>SUM(C47:K47)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="13">
-        <v>47</v>
-      </c>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
@@ -2645,14 +2560,11 @@
         <v>0.17347643363141158</v>
       </c>
       <c r="L48" s="9">
-        <f>SUM(C48:K48)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="13">
-        <v>48</v>
-      </c>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>48</v>
       </c>
@@ -2684,14 +2596,11 @@
         <v>0.16766719819904324</v>
       </c>
       <c r="L49" s="9">
-        <f>SUM(C49:K49)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="13">
-        <v>49</v>
-      </c>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
@@ -2723,14 +2632,11 @@
         <v>0.17967999847889951</v>
       </c>
       <c r="L50" s="9">
-        <f>SUM(C50:K50)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="13">
-        <v>50</v>
-      </c>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
@@ -2762,14 +2668,11 @@
         <v>0.25559883154819862</v>
       </c>
       <c r="L51" s="9">
-        <f>SUM(C51:K51)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="13">
-        <v>51</v>
-      </c>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
@@ -2801,13 +2704,13 @@
         <v>0.27024418492423519</v>
       </c>
       <c r="L52" s="9">
-        <f>SUM(C52:K52)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>52</v>
@@ -2840,14 +2743,11 @@
         <v>9.1497162308287874E-2</v>
       </c>
       <c r="L53" s="9">
-        <f>SUM(C53:K53)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="13">
-        <v>53</v>
-      </c>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>53</v>
       </c>
@@ -2879,14 +2779,11 @@
         <v>0.11077371177144982</v>
       </c>
       <c r="L54" s="9">
-        <f>SUM(C54:K54)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="13">
-        <v>54</v>
-      </c>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>52</v>
       </c>
@@ -2918,14 +2815,11 @@
         <v>0.13601236476043277</v>
       </c>
       <c r="L55" s="9">
-        <f>SUM(C55:K55)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="13">
-        <v>55</v>
-      </c>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
@@ -2957,13 +2851,13 @@
         <v>0.16765540366262577</v>
       </c>
       <c r="L56" s="9">
-        <f>SUM(C56:K56)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>55</v>
@@ -2996,14 +2890,11 @@
         <v>0.12438608414654476</v>
       </c>
       <c r="L57" s="9">
-        <f>SUM(C57:K57)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="13">
-        <v>57</v>
-      </c>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
@@ -3035,14 +2926,11 @@
         <v>0.14532912201833087</v>
       </c>
       <c r="L58" s="9">
-        <f>SUM(C58:K58)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="13">
-        <v>58</v>
-      </c>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>55</v>
       </c>
@@ -3074,14 +2962,11 @@
         <v>0.15349194167306218</v>
       </c>
       <c r="L59" s="9">
-        <f>SUM(C59:K59)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="13">
-        <v>59</v>
-      </c>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>56</v>
       </c>
@@ -3113,13 +2998,13 @@
         <v>0.18555744549250039</v>
       </c>
       <c r="L60" s="9">
-        <f>SUM(C60:K60)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>57</v>
@@ -3152,14 +3037,11 @@
         <v>9.593504495492805E-2</v>
       </c>
       <c r="L61" s="9">
-        <f>SUM(C61:K61)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="13">
-        <v>61</v>
-      </c>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>58</v>
       </c>
@@ -3191,13 +3073,13 @@
         <v>7.8525027418862858E-2</v>
       </c>
       <c r="L62" s="9">
-        <f>SUM(C62:K62)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>59</v>
@@ -3230,14 +3112,11 @@
         <v>4.9154139188137463E-2</v>
       </c>
       <c r="L63" s="9">
-        <f>SUM(C63:K63)</f>
+        <f t="shared" si="1"/>
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="13">
-        <v>63</v>
-      </c>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>60</v>
       </c>
@@ -3269,14 +3148,11 @@
         <v>7.3033972576921263E-2</v>
       </c>
       <c r="L64" s="9">
-        <f>SUM(C64:K64)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="13">
-        <v>64</v>
-      </c>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>61</v>
       </c>
@@ -3308,14 +3184,11 @@
         <v>0.16252180777318592</v>
       </c>
       <c r="L65" s="9">
-        <f>SUM(C65:K65)</f>
+        <f t="shared" si="1"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="13">
-        <v>65</v>
-      </c>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>62</v>
       </c>
@@ -3347,13 +3220,14 @@
         <v>0.21321961620469079</v>
       </c>
       <c r="L66" s="9">
-        <f>SUM(C66:K66)</f>
+        <f t="shared" ref="L66:L97" si="2">SUM(C66:K66)</f>
         <v>99.999999999999986</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="O66" s="15"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>63</v>
@@ -3386,14 +3260,11 @@
         <v>0.12850167052171679</v>
       </c>
       <c r="L67" s="9">
-        <f>SUM(C67:K67)</f>
+        <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="13">
-        <v>67</v>
-      </c>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>64</v>
       </c>
@@ -3425,14 +3296,11 @@
         <v>0.10599756363808947</v>
       </c>
       <c r="L68" s="9">
-        <f>SUM(C68:K68)</f>
+        <f t="shared" si="2"/>
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="13">
-        <v>68</v>
-      </c>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>63</v>
       </c>
@@ -3464,14 +3332,11 @@
         <v>0.18577494692144372</v>
       </c>
       <c r="L69" s="9">
-        <f>SUM(C69:K69)</f>
+        <f t="shared" si="2"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="13">
-        <v>69</v>
-      </c>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>64</v>
       </c>
@@ -3503,13 +3368,13 @@
         <v>0.16001383903472735</v>
       </c>
       <c r="L70" s="9">
-        <f>SUM(C70:K70)</f>
+        <f t="shared" si="2"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>65</v>
@@ -3545,10 +3410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="13">
-        <v>71</v>
-      </c>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>66</v>
       </c>
@@ -3583,9 +3445,9 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>67</v>
@@ -3621,10 +3483,7 @@
         <v>100.00000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="13">
-        <v>73</v>
-      </c>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>68</v>
       </c>
@@ -3659,9 +3518,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>69</v>
@@ -3697,10 +3556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="13">
-        <v>75</v>
-      </c>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>68</v>
       </c>
@@ -3735,9 +3591,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>70</v>
@@ -3773,10 +3629,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="13">
-        <v>77</v>
-      </c>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>71</v>
       </c>
@@ -3811,10 +3664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="13">
-        <v>78</v>
-      </c>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>72</v>
       </c>
@@ -3849,10 +3699,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="13">
-        <v>79</v>
-      </c>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>71</v>
       </c>
@@ -3887,9 +3734,9 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>73</v>
@@ -3925,10 +3772,7 @@
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="13">
-        <v>81</v>
-      </c>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +3809,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1615971294" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
@@ -3980,15 +3824,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -4024,7 +3868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -4059,14 +3903,11 @@
         <v>9.4604560386761308E-2</v>
       </c>
       <c r="L2" s="9">
-        <f>SUM(C2:K2)</f>
+        <f t="shared" ref="L2:L28" si="0">SUM(C2:K2)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>75</v>
       </c>
@@ -4098,14 +3939,11 @@
         <v>0.11525163273146369</v>
       </c>
       <c r="L3" s="9">
-        <f>SUM(C3:K3)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
@@ -4137,13 +3975,13 @@
         <v>0.12766375331434743</v>
       </c>
       <c r="L4" s="9">
-        <f>SUM(C4:K4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>77</v>
@@ -4176,14 +4014,11 @@
         <v>7.3109259864940254E-2</v>
       </c>
       <c r="L5" s="9">
-        <f>SUM(C5:K5)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>78</v>
       </c>
@@ -4215,14 +4050,11 @@
         <v>9.1884851116249458E-2</v>
       </c>
       <c r="L6" s="9">
-        <f>SUM(C6:K6)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>79</v>
       </c>
@@ -4254,14 +4086,11 @@
         <v>9.8642395891595069E-2</v>
       </c>
       <c r="L7" s="9">
-        <f>SUM(C7:K7)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>80</v>
       </c>
@@ -4293,14 +4122,11 @@
         <v>9.2518503700740162E-2</v>
       </c>
       <c r="L8" s="9">
-        <f>SUM(C8:K8)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>81</v>
       </c>
@@ -4332,14 +4158,11 @@
         <v>6.5990347680488531E-2</v>
       </c>
       <c r="L9" s="9">
-        <f>SUM(C9:K9)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>82</v>
       </c>
@@ -4371,14 +4194,11 @@
         <v>0.11792452830188679</v>
       </c>
       <c r="L10" s="9">
-        <f>SUM(C10:K10)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>83</v>
       </c>
@@ -4410,13 +4230,13 @@
         <v>0.13951866062085805</v>
       </c>
       <c r="L11" s="9">
-        <f>SUM(C11:K11)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>84</v>
@@ -4449,14 +4269,11 @@
         <v>0.11339475549255848</v>
       </c>
       <c r="L12" s="9">
-        <f>SUM(C12:K12)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999972</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>85</v>
       </c>
@@ -4488,14 +4305,11 @@
         <v>0.11584753234504108</v>
       </c>
       <c r="L13" s="9">
-        <f>SUM(C13:K13)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
@@ -4527,14 +4341,11 @@
         <v>0.20187190310148648</v>
       </c>
       <c r="L14" s="9">
-        <f>SUM(C14:K14)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>85</v>
       </c>
@@ -4566,13 +4377,13 @@
         <v>0.14397905759162302</v>
       </c>
       <c r="L15" s="9">
-        <f>SUM(C15:K15)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>86</v>
@@ -4605,14 +4416,12 @@
         <v>0.14063351654524198</v>
       </c>
       <c r="L16" s="9">
-        <f>SUM(C16:K16)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>87</v>
       </c>
@@ -4644,13 +4453,13 @@
         <v>0.19525600231414519</v>
       </c>
       <c r="L17" s="9">
-        <f>SUM(C17:K17)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>88</v>
@@ -4683,14 +4492,11 @@
         <v>7.9040022993461231E-2</v>
       </c>
       <c r="L18" s="9">
-        <f>SUM(C18:K18)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="14">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>89</v>
       </c>
@@ -4722,14 +4528,11 @@
         <v>9.4626563028050018E-2</v>
       </c>
       <c r="L19" s="9">
-        <f>SUM(C19:K19)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>90</v>
       </c>
@@ -4761,13 +4564,13 @@
         <v>9.2327578247622596E-2</v>
       </c>
       <c r="L20" s="9">
-        <f>SUM(C20:K20)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>91</v>
@@ -4800,14 +4603,11 @@
         <v>0.12525950754456572</v>
       </c>
       <c r="L21" s="9">
-        <f>SUM(C21:K21)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>92</v>
       </c>
@@ -4839,14 +4639,11 @@
         <v>9.3720712277413312E-2</v>
       </c>
       <c r="L22" s="9">
-        <f>SUM(C22:K22)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>91</v>
       </c>
@@ -4878,14 +4675,11 @@
         <v>0.18818216033120061</v>
       </c>
       <c r="L23" s="9">
-        <f>SUM(C23:K23)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>92</v>
       </c>
@@ -4917,13 +4711,13 @@
         <v>0.17977528089887643</v>
       </c>
       <c r="L24" s="9">
-        <f>SUM(C24:K24)</f>
+        <f t="shared" si="0"/>
         <v>100.00000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>93</v>
@@ -4956,14 +4750,11 @@
         <v>8.5032159598822613E-2</v>
       </c>
       <c r="L25" s="9">
-        <f>SUM(C25:K25)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14">
-        <v>25</v>
-      </c>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>94</v>
       </c>
@@ -4995,14 +4786,11 @@
         <v>8.1681339055348814E-2</v>
       </c>
       <c r="L26" s="9">
-        <f>SUM(C26:K26)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="14">
-        <v>26</v>
-      </c>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>93</v>
       </c>
@@ -5034,14 +4822,11 @@
         <v>0.11398176291793312</v>
       </c>
       <c r="L27" s="9">
-        <f>SUM(C27:K27)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="14">
-        <v>27</v>
-      </c>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>94</v>
       </c>
@@ -5073,13 +4858,13 @@
         <v>0.10339734121122598</v>
       </c>
       <c r="L28" s="9">
-        <f>SUM(C28:K28)</f>
+        <f t="shared" si="0"/>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>95</v>
@@ -5115,10 +4900,7 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="14">
-        <v>29</v>
-      </c>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>74</v>
       </c>
@@ -5153,9 +4935,9 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>96</v>
@@ -5191,10 +4973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="14">
-        <v>31</v>
-      </c>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>66</v>
       </c>
